--- a/biology/Virologie/Arepavirus/Arepavirus.xlsx
+++ b/biology/Virologie/Arepavirus/Arepavirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arepavirus est un genre de virus appartenant à la famille des Potyviridae, qui contient 2 espèces acceptées par l'ICTV. Ce sont des virus à ARN à simple brin de polarité positive (ARNmc), rattachés au groupe IV de la classification Baltimore.
-Ces virus infectent exclusivement des plantes (phytovirus). Ils ont été isolés dans l'île de Hainan sur des espèces de palmiers du genre Areca[2],[3]. 
+Ces virus infectent exclusivement des plantes (phytovirus). Ils ont été isolés dans l'île de Hainan sur des espèces de palmiers du genre Areca,. 
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme chez tous les virus de la famille des Potyviridae, les particules sont des virions non-enveloppés, flexueux, filamenteux, à symétrie hélicoïdale, de 690 à 900 nm de long sur 11 à 20 nm de diamètre[4].
-Le génome, monopartite (non segmenté), est un ARN linéaire à simple brin de sens positif, dont la taille est de 9437 nucléotides[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme chez tous les virus de la famille des Potyviridae, les particules sont des virions non-enveloppés, flexueux, filamenteux, à symétrie hélicoïdale, de 690 à 900 nm de long sur 11 à 20 nm de diamètre.
+Le génome, monopartite (non segmenté), est un ARN linéaire à simple brin de sens positif, dont la taille est de 9437 nucléotides.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (17 janvier 2021)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (17 janvier 2021) :
 Areca palm necrotic ringspot virus (ANRSV)
 Areca palm necrotic spindle-spot virus (ANSSV)</t>
         </is>
